--- a/documentos/Datos fijos2.xlsx
+++ b/documentos/Datos fijos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BA2944-6E27-4379-90DF-9228DBC592C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BB928-6AF2-4879-87E4-621FA156B0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{5E66E99B-3367-44EE-9783-6944D3DEB6D9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>LIBRO DE SUELDOS DIGITAL - AFIP</t>
   </si>
@@ -265,98 +265,6 @@
 Formato: 2 dígitos enteros. </t>
   </si>
   <si>
-    <t>Base imponible 1</t>
-  </si>
-  <si>
-    <t>Base imponible 2</t>
-  </si>
-  <si>
-    <t>Base imponible 3</t>
-  </si>
-  <si>
-    <t>Base imponible 4</t>
-  </si>
-  <si>
-    <t>Base imponible 5</t>
-  </si>
-  <si>
-    <t>Base imponible 6</t>
-  </si>
-  <si>
-    <t>Base imponible 7</t>
-  </si>
-  <si>
-    <t>Base imponible 8</t>
-  </si>
-  <si>
-    <t>Base imponible 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes Previsionales
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Contribuciones previsionales e INSSJyP
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para  Contribuciones FNE, asignaciones familiares y RENATRE
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes obra social y FSR
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes INSSJyP
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes diferenciales
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes personal regímenes especiales
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Contribuciones obra social y FSR
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Ley de riesgos del trabajo
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t>Base para el cálculo diferencial de aporte de Seg. Social</t>
-  </si>
-  <si>
-    <t>Base para el cálculo diferencial de contribuciones de Seg. Social</t>
-  </si>
-  <si>
-    <t>Base imponible 10</t>
-  </si>
-  <si>
-    <t>Importe a detraer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar diferenciales que sumen a la base imponible 1
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar diferenciales que sumen a la base imponible 2
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar diferencia en REM2 y el importe a detraer establecido  por la ley 27430. No puede ser menor al mínimo previsional vigente.
-SI la detracción es 0, se debe informar en 0.
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar el importe a detraer establecido por la ley 27430. 
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
     <t>PEDROZO DANTE OSCALDO</t>
   </si>
   <si>
@@ -418,18 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-  </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,88 +516,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -709,35 +601,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AFC0FC1F-40C5-4399-9766-9EEA247E2CF3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AFC0FC1F-40C5-4399-9766-9EEA247E2CF3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,15 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83205A9D-0CEA-4714-8546-E299B9B69775}">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AY20" sqref="AY20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1068,7 +953,7 @@
     <col min="15" max="15" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,83 +970,169 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2">
+        <v>20</v>
+      </c>
+      <c r="V2" s="2">
+        <v>21</v>
+      </c>
+      <c r="W2" s="2">
+        <v>22</v>
+      </c>
+      <c r="X2" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33">
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33">
         <v>4</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
     </row>
-    <row r="4" spans="1:51" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1276,200 +1247,122 @@
       <c r="AL4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AM4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="5" spans="1:51" s="31" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:38" s="30" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="30" t="s">
+      <c r="U5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="W5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="30" t="s">
+      <c r="X5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Y5" s="30" t="s">
+      <c r="Y5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="30" t="s">
+      <c r="Z5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="29" t="s">
+      <c r="AA5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AB5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="29" t="s">
+      <c r="AC5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="29" t="s">
+      <c r="AD5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" s="29" t="s">
+      <c r="AE5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AF5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="29" t="s">
+      <c r="AG5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AH5" s="29" t="s">
+      <c r="AH5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AI5" s="29" t="s">
+      <c r="AI5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AJ5" s="29" t="s">
+      <c r="AJ5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AK5" s="29" t="s">
+      <c r="AK5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AL5" s="29" t="s">
+      <c r="AL5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AM5" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO5" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP5" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU5" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV5" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW5" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY5" s="29" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="6" spans="1:51" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -1544,85 +1437,96 @@
       <c r="AL6" s="17">
         <v>0</v>
       </c>
-      <c r="AM6" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
     </row>
-    <row r="7" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="23">
         <v>23373230529</v>
       </c>
-      <c r="D7" s="20">
-        <v>30</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="19">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25">
         <v>31</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="19">
-        <v>30</v>
-      </c>
-      <c r="I7" s="19">
-        <v>3</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>1</v>
-      </c>
-      <c r="O7" s="19">
-        <v>1</v>
-      </c>
-      <c r="P7" s="19">
+      <c r="F7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="18">
+        <v>30</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
         <v>5</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="18">
         <v>97</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="18">
         <v>111</v>
       </c>
-      <c r="S7" s="19">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
         <v>27</v>
       </c>
-      <c r="U7" s="19">
-        <v>1</v>
-      </c>
-      <c r="V7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="19">
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
+      <c r="V7" s="18">
+        <v>1</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
         <v>2</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="18">
         <v>119302</v>
       </c>
       <c r="AF7" s="17">
@@ -1646,114 +1550,93 @@
       <c r="AL7" s="17">
         <v>0</v>
       </c>
-      <c r="AM7" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AN7" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AO7" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AP7" s="19">
-        <v>60302.62</v>
-      </c>
-      <c r="AQ7" s="19">
-        <v>62934.62</v>
-      </c>
-      <c r="AR7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="19">
-        <v>60302.62</v>
-      </c>
-      <c r="AU7" s="19">
-        <v>60302.62</v>
-      </c>
-      <c r="AV7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AX7" s="19">
-        <v>45930.94</v>
-      </c>
-      <c r="AY7" s="19">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="8" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="24">
+    <row r="8" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="23">
         <v>20412270089</v>
       </c>
-      <c r="D8" s="20">
-        <v>30</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="D8" s="19">
+        <v>30</v>
+      </c>
+      <c r="E8" s="25">
         <v>32</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="19">
-        <v>30</v>
-      </c>
-      <c r="I8" s="19">
-        <v>3</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19">
-        <v>1</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="F8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="18">
+        <v>30</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="18">
         <v>5</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <v>97</v>
       </c>
       <c r="R8">
         <v>111</v>
       </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
         <v>27</v>
       </c>
-      <c r="U8" s="19">
-        <v>1</v>
-      </c>
-      <c r="V8" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="19">
+      <c r="U8" s="18">
+        <v>1</v>
+      </c>
+      <c r="V8" s="18">
+        <v>1</v>
+      </c>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
         <v>2</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE8" s="18">
         <v>119302</v>
       </c>
       <c r="AF8" s="17">
@@ -1777,114 +1660,93 @@
       <c r="AL8" s="17">
         <v>0</v>
       </c>
-      <c r="AM8" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AN8" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AO8" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AP8" s="19">
-        <v>60302.62</v>
-      </c>
-      <c r="AQ8" s="19">
-        <v>62934.62</v>
-      </c>
-      <c r="AR8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="19">
-        <v>60302.62</v>
-      </c>
-      <c r="AU8" s="19">
-        <v>60302.62</v>
-      </c>
-      <c r="AV8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="19">
-        <v>52934.62</v>
-      </c>
-      <c r="AX8" s="19">
-        <v>45930.94</v>
-      </c>
-      <c r="AY8" s="19">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="9" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="24">
+    <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="23">
         <v>20363899952</v>
       </c>
-      <c r="D9" s="20">
-        <v>30</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="19">
+        <v>30</v>
+      </c>
+      <c r="E9" s="25">
         <v>51</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="19">
-        <v>30</v>
-      </c>
-      <c r="I9" s="19">
-        <v>3</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
-        <v>1</v>
-      </c>
-      <c r="P9" s="19">
+      <c r="F9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="18">
+        <v>30</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
+      <c r="P9" s="18">
         <v>5</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="18">
         <v>97</v>
       </c>
       <c r="R9">
         <v>111</v>
       </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
         <v>27</v>
       </c>
-      <c r="U9" s="19">
-        <v>1</v>
-      </c>
-      <c r="V9" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="19">
+      <c r="U9" s="18">
+        <v>1</v>
+      </c>
+      <c r="V9" s="18">
+        <v>1</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0</v>
+      </c>
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="18">
         <v>2</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE9" s="18">
         <v>119302</v>
       </c>
       <c r="AF9" s="17">
@@ -1908,112 +1770,93 @@
       <c r="AL9" s="17">
         <v>0</v>
       </c>
-      <c r="AM9" s="19">
-        <v>55396.3</v>
-      </c>
-      <c r="AN9" s="19">
-        <v>55396.3</v>
-      </c>
-      <c r="AO9" s="19">
-        <v>55396.3</v>
-      </c>
-      <c r="AP9" s="19">
-        <v>63107.5</v>
-      </c>
-      <c r="AQ9" s="19">
-        <v>55396.3</v>
-      </c>
-      <c r="AR9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="19">
-        <v>63107.5</v>
-      </c>
-      <c r="AU9" s="19">
-        <v>63107.5</v>
-      </c>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19">
-        <v>55396.3</v>
-      </c>
-      <c r="AX9" s="19">
-        <v>48392.62</v>
-      </c>
-      <c r="AY9" s="19">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="24">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="23">
         <v>20280474682</v>
       </c>
-      <c r="D10" s="20">
-        <v>30</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="19">
+        <v>30</v>
+      </c>
+      <c r="E10" s="25">
         <v>4</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="19">
-        <v>30</v>
-      </c>
-      <c r="I10" s="19">
-        <v>3</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19">
-        <v>1</v>
-      </c>
-      <c r="P10" s="19">
+      <c r="F10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="18">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1</v>
+      </c>
+      <c r="P10" s="18">
         <v>5</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="18">
         <v>97</v>
       </c>
       <c r="R10">
         <v>110</v>
       </c>
-      <c r="S10" s="19">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
         <v>27</v>
       </c>
-      <c r="U10" s="19">
-        <v>1</v>
-      </c>
-      <c r="V10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="19">
+      <c r="U10" s="18">
+        <v>1</v>
+      </c>
+      <c r="V10" s="18">
+        <v>1</v>
+      </c>
+      <c r="W10" s="18">
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="18">
         <v>2</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE10" s="18">
         <v>119302</v>
       </c>
       <c r="AF10" s="17">
@@ -2037,111 +1880,93 @@
       <c r="AL10" s="17">
         <v>0</v>
       </c>
-      <c r="AM10" s="27">
-        <v>78224</v>
-      </c>
-      <c r="AN10" s="27">
-        <v>78224</v>
-      </c>
-      <c r="AO10" s="27">
-        <v>78224</v>
-      </c>
-      <c r="AP10" s="27">
-        <v>87697.21</v>
-      </c>
-      <c r="AQ10" s="27">
-        <v>78224</v>
-      </c>
-      <c r="AR10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="27">
-        <v>87697.21</v>
-      </c>
-      <c r="AU10" s="27">
-        <v>87697.21</v>
-      </c>
-      <c r="AW10" s="27">
-        <v>78224</v>
-      </c>
-      <c r="AX10" s="27">
-        <v>71220.320000000007</v>
-      </c>
-      <c r="AY10" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="24">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="23">
         <v>20177508293</v>
       </c>
-      <c r="D11" s="20">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="19">
+        <v>30</v>
+      </c>
+      <c r="E11" s="25">
         <v>17</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="19">
-        <v>30</v>
-      </c>
-      <c r="I11" s="19">
-        <v>3</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
-        <v>1</v>
-      </c>
-      <c r="P11" s="19">
+      <c r="F11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="18">
+        <v>30</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18">
+        <v>1</v>
+      </c>
+      <c r="P11" s="18">
         <v>5</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="18">
         <v>97</v>
       </c>
       <c r="R11">
         <v>110</v>
       </c>
-      <c r="S11" s="19">
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
         <v>27</v>
       </c>
-      <c r="U11" s="19">
-        <v>1</v>
-      </c>
-      <c r="V11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="19">
+      <c r="U11" s="18">
+        <v>1</v>
+      </c>
+      <c r="V11" s="18">
+        <v>1</v>
+      </c>
+      <c r="W11" s="18">
+        <v>0</v>
+      </c>
+      <c r="X11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
         <v>2</v>
       </c>
-      <c r="AE11" s="19">
+      <c r="AE11" s="18">
         <v>119302</v>
       </c>
       <c r="AF11" s="17">
@@ -2165,111 +1990,93 @@
       <c r="AL11" s="17">
         <v>0</v>
       </c>
-      <c r="AM11" s="27">
-        <v>68803</v>
-      </c>
-      <c r="AN11" s="27">
-        <v>68803</v>
-      </c>
-      <c r="AO11" s="27">
-        <v>68803</v>
-      </c>
-      <c r="AP11" s="27">
-        <v>76593</v>
-      </c>
-      <c r="AQ11" s="27">
-        <v>68803</v>
-      </c>
-      <c r="AR11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="27">
-        <v>76593</v>
-      </c>
-      <c r="AU11" s="27">
-        <v>76593</v>
-      </c>
-      <c r="AW11" s="27">
-        <v>68803</v>
-      </c>
-      <c r="AX11" s="27">
-        <v>61799.32</v>
-      </c>
-      <c r="AY11" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="24">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="23">
         <v>20215465676</v>
       </c>
-      <c r="D12" s="20">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="D12" s="19">
+        <v>30</v>
+      </c>
+      <c r="E12" s="25">
         <v>22</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="19">
-        <v>30</v>
-      </c>
-      <c r="I12" s="19">
-        <v>3</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0</v>
-      </c>
-      <c r="M12" s="19">
-        <v>0</v>
-      </c>
-      <c r="N12" s="19">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19">
-        <v>1</v>
-      </c>
-      <c r="P12" s="19">
+      <c r="F12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="18">
+        <v>30</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1</v>
+      </c>
+      <c r="P12" s="18">
         <v>5</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="18">
         <v>97</v>
       </c>
       <c r="R12">
         <v>110</v>
       </c>
-      <c r="S12" s="19">
-        <v>0</v>
-      </c>
-      <c r="T12" s="19">
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
         <v>27</v>
       </c>
-      <c r="U12" s="19">
-        <v>1</v>
-      </c>
-      <c r="V12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="19">
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18">
+        <v>1</v>
+      </c>
+      <c r="W12" s="18">
+        <v>0</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="18">
         <v>2</v>
       </c>
-      <c r="AE12" s="19">
+      <c r="AE12" s="18">
         <v>119302</v>
       </c>
       <c r="AF12" s="17">
@@ -2293,114 +2100,93 @@
       <c r="AL12" s="17">
         <v>0</v>
       </c>
-      <c r="AM12" s="27">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="AN12" s="27">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="AO12" s="27">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="AP12" s="27">
-        <v>90828.57</v>
-      </c>
-      <c r="AQ12" s="27">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="AR12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="27">
-        <v>90828.57</v>
-      </c>
-      <c r="AU12" s="27">
-        <v>90828.57</v>
-      </c>
-      <c r="AV12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="27">
-        <v>81355.360000000001</v>
-      </c>
-      <c r="AX12" s="27">
-        <v>74351.679999999993</v>
-      </c>
-      <c r="AY12" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="24">
         <v>20302390224</v>
       </c>
-      <c r="D13" s="20">
-        <v>30</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="19">
+        <v>30</v>
+      </c>
+      <c r="E13" s="25">
         <v>41</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="19">
-        <v>30</v>
-      </c>
-      <c r="I13" s="19">
-        <v>3</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0</v>
-      </c>
-      <c r="N13" s="19">
-        <v>1</v>
-      </c>
-      <c r="O13" s="19">
-        <v>1</v>
-      </c>
-      <c r="P13" s="19">
+      <c r="F13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="18">
+        <v>30</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1</v>
+      </c>
+      <c r="P13" s="18">
         <v>5</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="18">
         <v>97</v>
       </c>
       <c r="R13">
         <v>110</v>
       </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
         <v>27</v>
       </c>
-      <c r="U13" s="19">
-        <v>1</v>
-      </c>
-      <c r="V13" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="19">
+      <c r="U13" s="18">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18">
+        <v>1</v>
+      </c>
+      <c r="W13" s="18">
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
         <v>2</v>
       </c>
-      <c r="AE13" s="19">
+      <c r="AE13" s="18">
         <v>119302</v>
       </c>
       <c r="AF13" s="17">
@@ -2424,114 +2210,93 @@
       <c r="AL13" s="17">
         <v>0</v>
       </c>
-      <c r="AM13" s="27">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="AN13" s="27">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="AO13" s="27">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="AP13" s="27">
-        <v>59790.8</v>
-      </c>
-      <c r="AQ13" s="27">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="AR13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="27">
-        <v>59790.8</v>
-      </c>
-      <c r="AU13" s="27">
-        <v>59790.8</v>
-      </c>
-      <c r="AV13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="27">
-        <v>52000.800000000003</v>
-      </c>
-      <c r="AX13" s="27">
-        <v>44997.120000000003</v>
-      </c>
-      <c r="AY13" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="24">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="23">
         <v>20397771262</v>
       </c>
-      <c r="D14" s="20">
-        <v>30</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="19">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25">
         <v>55</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="19">
-        <v>30</v>
-      </c>
-      <c r="I14" s="19">
-        <v>3</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19">
-        <v>1</v>
-      </c>
-      <c r="O14" s="19">
-        <v>1</v>
-      </c>
-      <c r="P14" s="19">
+      <c r="F14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="18">
+        <v>30</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1</v>
+      </c>
+      <c r="P14" s="18">
         <v>5</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="18">
         <v>97</v>
       </c>
       <c r="R14">
         <v>110</v>
       </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
         <v>27</v>
       </c>
-      <c r="U14" s="19">
-        <v>1</v>
-      </c>
-      <c r="V14" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="19">
+      <c r="U14" s="18">
+        <v>1</v>
+      </c>
+      <c r="V14" s="18">
+        <v>1</v>
+      </c>
+      <c r="W14" s="18">
+        <v>0</v>
+      </c>
+      <c r="X14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="18">
         <v>2</v>
       </c>
-      <c r="AE14" s="19">
+      <c r="AE14" s="18">
         <v>119302</v>
       </c>
       <c r="AF14" s="17">
@@ -2555,114 +2320,93 @@
       <c r="AL14" s="17">
         <v>0</v>
       </c>
-      <c r="AM14" s="27">
-        <v>50437.38</v>
-      </c>
-      <c r="AN14" s="27">
-        <v>50437.38</v>
-      </c>
-      <c r="AO14" s="27">
-        <v>50437.38</v>
-      </c>
-      <c r="AP14" s="27">
-        <v>58227.38</v>
-      </c>
-      <c r="AQ14" s="27">
-        <v>50437.38</v>
-      </c>
-      <c r="AR14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="27">
-        <v>58227.38</v>
-      </c>
-      <c r="AU14" s="27">
-        <v>58227.38</v>
-      </c>
-      <c r="AV14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="27">
-        <v>50437.38</v>
-      </c>
-      <c r="AX14" s="27">
-        <v>43433.7</v>
-      </c>
-      <c r="AY14" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="24">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="23">
         <v>20222706042</v>
       </c>
-      <c r="D15" s="20">
-        <v>30</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="19">
+        <v>30</v>
+      </c>
+      <c r="E15" s="25">
         <v>35</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="19">
-        <v>30</v>
-      </c>
-      <c r="I15" s="19">
-        <v>3</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <v>1</v>
-      </c>
-      <c r="O15" s="19">
-        <v>1</v>
-      </c>
-      <c r="P15" s="19">
+      <c r="F15" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="18">
+        <v>30</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1</v>
+      </c>
+      <c r="P15" s="18">
         <v>5</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="18">
         <v>97</v>
       </c>
       <c r="R15">
         <v>110</v>
       </c>
-      <c r="S15" s="19">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
         <v>27</v>
       </c>
-      <c r="U15" s="19">
-        <v>1</v>
-      </c>
-      <c r="V15" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="19">
+      <c r="U15" s="18">
+        <v>1</v>
+      </c>
+      <c r="V15" s="18">
+        <v>1</v>
+      </c>
+      <c r="W15" s="18">
+        <v>0</v>
+      </c>
+      <c r="X15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="18">
         <v>2</v>
       </c>
-      <c r="AE15" s="19">
+      <c r="AE15" s="18">
         <v>119302</v>
       </c>
       <c r="AF15" s="17">
@@ -2686,114 +2430,93 @@
       <c r="AL15" s="17">
         <v>0</v>
       </c>
-      <c r="AM15" s="27">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="AN15" s="27">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="AO15" s="27">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="AP15" s="27">
-        <v>93406.15</v>
-      </c>
-      <c r="AQ15" s="27">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="AR15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="27">
-        <v>93406.15</v>
-      </c>
-      <c r="AU15" s="27">
-        <v>93406.15</v>
-      </c>
-      <c r="AV15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="27">
-        <v>83413.149999999994</v>
-      </c>
-      <c r="AX15" s="27">
-        <v>76409.47</v>
-      </c>
-      <c r="AY15" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="24">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="23">
         <v>20146494669</v>
       </c>
-      <c r="D16" s="20">
-        <v>30</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="D16" s="19">
+        <v>30</v>
+      </c>
+      <c r="E16" s="25">
         <v>44</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="19">
-        <v>30</v>
-      </c>
-      <c r="I16" s="19">
-        <v>3</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0</v>
-      </c>
-      <c r="N16" s="19">
-        <v>1</v>
-      </c>
-      <c r="O16" s="19">
-        <v>1</v>
-      </c>
-      <c r="P16" s="19">
+      <c r="F16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="18">
+        <v>30</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18">
+        <v>1</v>
+      </c>
+      <c r="P16" s="18">
         <v>5</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="18">
         <v>97</v>
       </c>
       <c r="R16">
         <v>110</v>
       </c>
-      <c r="S16" s="19">
-        <v>0</v>
-      </c>
-      <c r="T16" s="19">
+      <c r="S16" s="18">
+        <v>0</v>
+      </c>
+      <c r="T16" s="18">
         <v>27</v>
       </c>
-      <c r="U16" s="19">
-        <v>1</v>
-      </c>
-      <c r="V16" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="19">
+      <c r="U16" s="18">
+        <v>1</v>
+      </c>
+      <c r="V16" s="18">
+        <v>1</v>
+      </c>
+      <c r="W16" s="18">
+        <v>0</v>
+      </c>
+      <c r="X16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="18">
         <v>2</v>
       </c>
-      <c r="AE16" s="19">
+      <c r="AE16" s="18">
         <v>119302</v>
       </c>
       <c r="AF16" s="17">
@@ -2817,114 +2540,93 @@
       <c r="AL16" s="17">
         <v>0</v>
       </c>
-      <c r="AM16" s="27">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="AN16" s="27">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="AO16" s="27">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="AP16" s="27">
-        <v>77014.399999999994</v>
-      </c>
-      <c r="AQ16" s="27">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="AR16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="27">
-        <v>77014.399999999994</v>
-      </c>
-      <c r="AU16" s="27">
-        <v>77014.399999999994</v>
-      </c>
-      <c r="AV16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="27">
-        <v>69224.399999999994</v>
-      </c>
-      <c r="AX16" s="27">
-        <v>62220.72</v>
-      </c>
-      <c r="AY16" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="24">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="23">
         <v>20260202031</v>
       </c>
-      <c r="D17" s="20">
-        <v>30</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="D17" s="19">
+        <v>30</v>
+      </c>
+      <c r="E17" s="25">
         <v>46</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="19">
-        <v>30</v>
-      </c>
-      <c r="I17" s="19">
-        <v>3</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
-      </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0</v>
-      </c>
-      <c r="N17" s="19">
-        <v>1</v>
-      </c>
-      <c r="O17" s="19">
-        <v>1</v>
-      </c>
-      <c r="P17" s="19">
+      <c r="F17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="18">
+        <v>30</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18">
+        <v>1</v>
+      </c>
+      <c r="P17" s="18">
         <v>5</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <v>97</v>
       </c>
       <c r="R17">
         <v>110</v>
       </c>
-      <c r="S17" s="19">
-        <v>0</v>
-      </c>
-      <c r="T17" s="19">
+      <c r="S17" s="18">
+        <v>0</v>
+      </c>
+      <c r="T17" s="18">
         <v>27</v>
       </c>
-      <c r="U17" s="19">
-        <v>1</v>
-      </c>
-      <c r="V17" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="19">
+      <c r="U17" s="18">
+        <v>1</v>
+      </c>
+      <c r="V17" s="18">
+        <v>1</v>
+      </c>
+      <c r="W17" s="18">
+        <v>0</v>
+      </c>
+      <c r="X17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="18">
         <v>2</v>
       </c>
-      <c r="AE17" s="19">
+      <c r="AE17" s="18">
         <v>119302</v>
       </c>
       <c r="AF17" s="17">
@@ -2948,114 +2650,93 @@
       <c r="AL17" s="17">
         <v>0</v>
       </c>
-      <c r="AM17" s="27">
-        <v>54243</v>
-      </c>
-      <c r="AN17" s="27">
-        <v>54243</v>
-      </c>
-      <c r="AO17" s="27">
-        <v>54243</v>
-      </c>
-      <c r="AP17" s="27">
-        <v>62033</v>
-      </c>
-      <c r="AQ17" s="27">
-        <v>54243</v>
-      </c>
-      <c r="AR17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="27">
-        <v>62033</v>
-      </c>
-      <c r="AU17" s="27">
-        <v>62033</v>
-      </c>
-      <c r="AV17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="27">
-        <v>54243</v>
-      </c>
-      <c r="AX17" s="27">
-        <v>47239.32</v>
-      </c>
-      <c r="AY17" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="24">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="23">
         <v>20229337700</v>
       </c>
-      <c r="D18" s="20">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="19">
+        <v>30</v>
+      </c>
+      <c r="E18" s="25">
         <v>52</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="19">
-        <v>30</v>
-      </c>
-      <c r="I18" s="19">
-        <v>3</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19">
-        <v>0</v>
-      </c>
-      <c r="N18" s="19">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19">
-        <v>1</v>
-      </c>
-      <c r="P18" s="19">
+      <c r="F18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="18">
+        <v>30</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18">
         <v>5</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="18">
         <v>97</v>
       </c>
       <c r="R18">
         <v>110</v>
       </c>
-      <c r="S18" s="19">
-        <v>0</v>
-      </c>
-      <c r="T18" s="19">
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
         <v>27</v>
       </c>
-      <c r="U18" s="19">
-        <v>1</v>
-      </c>
-      <c r="V18" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="19">
+      <c r="U18" s="18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="18">
+        <v>1</v>
+      </c>
+      <c r="W18" s="18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="18">
         <v>2</v>
       </c>
-      <c r="AE18" s="19">
+      <c r="AE18" s="18">
         <v>119302</v>
       </c>
       <c r="AF18" s="17">
@@ -3079,114 +2760,93 @@
       <c r="AL18" s="17">
         <v>0</v>
       </c>
-      <c r="AM18" s="27">
-        <v>54349.54</v>
-      </c>
-      <c r="AN18" s="27">
-        <v>54349.54</v>
-      </c>
-      <c r="AO18" s="27">
-        <v>54349.54</v>
-      </c>
-      <c r="AP18" s="27">
-        <v>62661.54</v>
-      </c>
-      <c r="AQ18" s="27">
-        <v>54349.54</v>
-      </c>
-      <c r="AR18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="27">
-        <v>62661.54</v>
-      </c>
-      <c r="AU18" s="27">
-        <v>61661.54</v>
-      </c>
-      <c r="AV18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="27">
-        <v>54349.54</v>
-      </c>
-      <c r="AX18" s="27">
-        <v>47345.86</v>
-      </c>
-      <c r="AY18" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="24">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="23">
         <v>20179209927</v>
       </c>
-      <c r="D19" s="20">
-        <v>30</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="19">
+        <v>30</v>
+      </c>
+      <c r="E19" s="25">
         <v>56</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="19">
-        <v>30</v>
-      </c>
-      <c r="I19" s="19">
-        <v>3</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="19">
-        <v>1</v>
-      </c>
-      <c r="P19" s="19">
+      <c r="F19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="18">
+        <v>30</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1</v>
+      </c>
+      <c r="P19" s="18">
         <v>5</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="18">
         <v>97</v>
       </c>
       <c r="R19">
         <v>110</v>
       </c>
-      <c r="S19" s="19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="19">
+      <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
         <v>27</v>
       </c>
-      <c r="U19" s="19">
-        <v>1</v>
-      </c>
-      <c r="V19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="19">
+      <c r="U19" s="18">
+        <v>1</v>
+      </c>
+      <c r="V19" s="18">
+        <v>1</v>
+      </c>
+      <c r="W19" s="18">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>30</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="18">
         <v>2</v>
       </c>
-      <c r="AE19" s="19">
+      <c r="AE19" s="18">
         <v>119302</v>
       </c>
       <c r="AF19" s="17">
@@ -3210,63 +2870,36 @@
       <c r="AL19" s="17">
         <v>0</v>
       </c>
-      <c r="AM19" s="27">
-        <v>52693.2</v>
-      </c>
-      <c r="AN19" s="27">
-        <v>52693.2</v>
-      </c>
-      <c r="AO19" s="27">
-        <v>52693.2</v>
-      </c>
-      <c r="AP19" s="27">
-        <v>60483.199999999997</v>
-      </c>
-      <c r="AQ19" s="27">
-        <v>52693.2</v>
-      </c>
-      <c r="AR19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="27">
-        <v>60483.199999999997</v>
-      </c>
-      <c r="AU19" s="27">
-        <v>60483.199999999997</v>
-      </c>
-      <c r="AV19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="27">
-        <v>52693.2</v>
-      </c>
-      <c r="AX19" s="27">
-        <v>60483.199999999997</v>
-      </c>
-      <c r="AY19" s="27">
-        <v>7003.68</v>
-      </c>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="L20" s="19" t="s">
-        <v>114</v>
-      </c>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="L20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="L21" s="19" t="s">
-        <v>114</v>
-      </c>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="L21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:AY3"/>
+    <mergeCell ref="J3:AL3"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
